--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Ptch1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H2">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I2">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J2">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.88736189372331</v>
+        <v>6.9371785</v>
       </c>
       <c r="N2">
-        <v>6.88736189372331</v>
+        <v>13.874357</v>
       </c>
       <c r="O2">
-        <v>0.3410305939650818</v>
+        <v>0.3375035789200212</v>
       </c>
       <c r="P2">
-        <v>0.3410305939650818</v>
+        <v>0.2836814434642481</v>
       </c>
       <c r="Q2">
-        <v>37.76657665749757</v>
+        <v>38.46352958358575</v>
       </c>
       <c r="R2">
-        <v>37.76657665749757</v>
+        <v>153.854118334343</v>
       </c>
       <c r="S2">
-        <v>0.1783681515644966</v>
+        <v>0.1619855296986016</v>
       </c>
       <c r="T2">
-        <v>0.1783681515644966</v>
+        <v>0.1157030608159707</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H3">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I3">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J3">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.15231783898265</v>
+        <v>1.191958</v>
       </c>
       <c r="N3">
-        <v>1.15231783898265</v>
+        <v>3.575874</v>
       </c>
       <c r="O3">
-        <v>0.05705749794024108</v>
+        <v>0.05799044826687832</v>
       </c>
       <c r="P3">
-        <v>0.05705749794024108</v>
+        <v>0.0731139538910722</v>
       </c>
       <c r="Q3">
-        <v>6.318689314031931</v>
+        <v>6.608870132921</v>
       </c>
       <c r="R3">
-        <v>6.318689314031931</v>
+        <v>39.653220797526</v>
       </c>
       <c r="S3">
-        <v>0.02984260245442356</v>
+        <v>0.02783263368651762</v>
       </c>
       <c r="T3">
-        <v>0.02984260245442356</v>
+        <v>0.029820449833621</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H4">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I4">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J4">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5145994719149219</v>
+        <v>0.52236</v>
       </c>
       <c r="N4">
-        <v>0.5145994719149219</v>
+        <v>1.56708</v>
       </c>
       <c r="O4">
-        <v>0.02548060727303979</v>
+        <v>0.02541355530705492</v>
       </c>
       <c r="P4">
-        <v>0.02548060727303979</v>
+        <v>0.03204123379728185</v>
       </c>
       <c r="Q4">
-        <v>2.821785859937772</v>
+        <v>2.89625087682</v>
       </c>
       <c r="R4">
-        <v>2.821785859937772</v>
+        <v>17.37750526092</v>
       </c>
       <c r="S4">
-        <v>0.01332704132843381</v>
+        <v>0.01219728759947024</v>
       </c>
       <c r="T4">
-        <v>0.01332704132843381</v>
+        <v>0.01306842202081807</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H5">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I5">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J5">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.807719035991041</v>
+        <v>0.8235506666666668</v>
       </c>
       <c r="N5">
-        <v>0.807719035991041</v>
+        <v>2.470652</v>
       </c>
       <c r="O5">
-        <v>0.03999454462411237</v>
+        <v>0.04006690867504266</v>
       </c>
       <c r="P5">
-        <v>0.03999454462411237</v>
+        <v>0.05051607981961482</v>
       </c>
       <c r="Q5">
-        <v>4.429095401285034</v>
+        <v>4.566217437091335</v>
       </c>
       <c r="R5">
-        <v>4.429095401285034</v>
+        <v>27.39730462254801</v>
       </c>
       <c r="S5">
-        <v>0.02091822001751879</v>
+        <v>0.01923019437565813</v>
       </c>
       <c r="T5">
-        <v>0.02091822001751879</v>
+        <v>0.02060362138664153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H6">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I6">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J6">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.0787952409472</v>
+        <v>5.261590333333333</v>
       </c>
       <c r="N6">
-        <v>5.0787952409472</v>
+        <v>15.784771</v>
       </c>
       <c r="O6">
-        <v>0.2514786625668252</v>
+        <v>0.2559838367011873</v>
       </c>
       <c r="P6">
-        <v>0.2514786625668252</v>
+        <v>0.3227426411207815</v>
       </c>
       <c r="Q6">
-        <v>27.84937291733838</v>
+        <v>29.17314805188817</v>
       </c>
       <c r="R6">
-        <v>27.84937291733838</v>
+        <v>175.038888311329</v>
       </c>
       <c r="S6">
-        <v>0.1315300884839358</v>
+        <v>0.122859963485449</v>
       </c>
       <c r="T6">
-        <v>0.1315300884839358</v>
+        <v>0.1316346637886837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H7">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I7">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J7">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.75493680071728</v>
+        <v>5.817747499999999</v>
       </c>
       <c r="N7">
-        <v>5.75493680071728</v>
+        <v>11.635495</v>
       </c>
       <c r="O7">
-        <v>0.2849580936306999</v>
+        <v>0.2830416721298156</v>
       </c>
       <c r="P7">
-        <v>0.2849580936306999</v>
+        <v>0.2379046479070015</v>
       </c>
       <c r="Q7">
-        <v>31.55696842958351</v>
+        <v>32.25678899225125</v>
       </c>
       <c r="R7">
-        <v>31.55696842958351</v>
+        <v>129.027155969005</v>
       </c>
       <c r="S7">
-        <v>0.1490407292885134</v>
+        <v>0.1358464266762366</v>
       </c>
       <c r="T7">
-        <v>0.1490407292885134</v>
+        <v>0.09703241639298475</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.07661518113532</v>
+        <v>0.150215</v>
       </c>
       <c r="H8">
-        <v>3.07661518113532</v>
+        <v>0.450645</v>
       </c>
       <c r="I8">
-        <v>0.2934556207752901</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J8">
-        <v>0.2934556207752901</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.88736189372331</v>
+        <v>6.9371785</v>
       </c>
       <c r="N8">
-        <v>6.88736189372331</v>
+        <v>13.874357</v>
       </c>
       <c r="O8">
-        <v>0.3410305939650818</v>
+        <v>0.3375035789200212</v>
       </c>
       <c r="P8">
-        <v>0.3410305939650818</v>
+        <v>0.2836814434642481</v>
       </c>
       <c r="Q8">
-        <v>21.18976216020204</v>
+        <v>1.0420682683775</v>
       </c>
       <c r="R8">
-        <v>21.18976216020204</v>
+        <v>6.252409610265</v>
       </c>
       <c r="S8">
-        <v>0.100077344655389</v>
+        <v>0.004388572298556526</v>
       </c>
       <c r="T8">
-        <v>0.100077344655389</v>
+        <v>0.004702005622044956</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.07661518113532</v>
+        <v>0.150215</v>
       </c>
       <c r="H9">
-        <v>3.07661518113532</v>
+        <v>0.450645</v>
       </c>
       <c r="I9">
-        <v>0.2934556207752901</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J9">
-        <v>0.2934556207752901</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.15231783898265</v>
+        <v>1.191958</v>
       </c>
       <c r="N9">
-        <v>1.15231783898265</v>
+        <v>3.575874</v>
       </c>
       <c r="O9">
-        <v>0.05705749794024108</v>
+        <v>0.05799044826687832</v>
       </c>
       <c r="P9">
-        <v>0.05705749794024108</v>
+        <v>0.0731139538910722</v>
       </c>
       <c r="Q9">
-        <v>3.545238556907067</v>
+        <v>0.17904997097</v>
       </c>
       <c r="R9">
-        <v>3.545238556907067</v>
+        <v>1.61144973873</v>
       </c>
       <c r="S9">
-        <v>0.01674384347793828</v>
+        <v>0.0007540520774898382</v>
       </c>
       <c r="T9">
-        <v>0.01674384347793828</v>
+        <v>0.001211860099298612</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.07661518113532</v>
+        <v>0.150215</v>
       </c>
       <c r="H10">
-        <v>3.07661518113532</v>
+        <v>0.450645</v>
       </c>
       <c r="I10">
-        <v>0.2934556207752901</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J10">
-        <v>0.2934556207752901</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5145994719149219</v>
+        <v>0.52236</v>
       </c>
       <c r="N10">
-        <v>0.5145994719149219</v>
+        <v>1.56708</v>
       </c>
       <c r="O10">
-        <v>0.02548060727303979</v>
+        <v>0.02541355530705492</v>
       </c>
       <c r="P10">
-        <v>0.02548060727303979</v>
+        <v>0.03204123379728185</v>
       </c>
       <c r="Q10">
-        <v>1.583224547497668</v>
+        <v>0.0784663074</v>
       </c>
       <c r="R10">
-        <v>1.583224547497668</v>
+        <v>0.7061967666</v>
       </c>
       <c r="S10">
-        <v>0.007477427425041263</v>
+        <v>0.0003304534582574151</v>
       </c>
       <c r="T10">
-        <v>0.007477427425041263</v>
+        <v>0.0005310818346532535</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.07661518113532</v>
+        <v>0.150215</v>
       </c>
       <c r="H11">
-        <v>3.07661518113532</v>
+        <v>0.450645</v>
       </c>
       <c r="I11">
-        <v>0.2934556207752901</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J11">
-        <v>0.2934556207752901</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.807719035991041</v>
+        <v>0.8235506666666668</v>
       </c>
       <c r="N11">
-        <v>0.807719035991041</v>
+        <v>2.470652</v>
       </c>
       <c r="O11">
-        <v>0.03999454462411237</v>
+        <v>0.04006690867504266</v>
       </c>
       <c r="P11">
-        <v>0.03999454462411237</v>
+        <v>0.05051607981961482</v>
       </c>
       <c r="Q11">
-        <v>2.485040648222022</v>
+        <v>0.1237096633933333</v>
       </c>
       <c r="R11">
-        <v>2.485040648222022</v>
+        <v>1.11338697054</v>
       </c>
       <c r="S11">
-        <v>0.01173662392029393</v>
+        <v>0.0005209915878899603</v>
       </c>
       <c r="T11">
-        <v>0.01173662392029393</v>
+        <v>0.000837301475961489</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.07661518113532</v>
+        <v>0.150215</v>
       </c>
       <c r="H12">
-        <v>3.07661518113532</v>
+        <v>0.450645</v>
       </c>
       <c r="I12">
-        <v>0.2934556207752901</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J12">
-        <v>0.2934556207752901</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.0787952409472</v>
+        <v>5.261590333333333</v>
       </c>
       <c r="N12">
-        <v>5.0787952409472</v>
+        <v>15.784771</v>
       </c>
       <c r="O12">
-        <v>0.2514786625668252</v>
+        <v>0.2559838367011873</v>
       </c>
       <c r="P12">
-        <v>0.2514786625668252</v>
+        <v>0.3227426411207815</v>
       </c>
       <c r="Q12">
-        <v>15.62549854017597</v>
+        <v>0.7903697919216666</v>
       </c>
       <c r="R12">
-        <v>15.62549854017597</v>
+        <v>7.113328127294999</v>
       </c>
       <c r="S12">
-        <v>0.07379782703528739</v>
+        <v>0.003328567887249761</v>
       </c>
       <c r="T12">
-        <v>0.07379782703528739</v>
+        <v>0.005349443003714852</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.07661518113532</v>
+        <v>0.150215</v>
       </c>
       <c r="H13">
-        <v>3.07661518113532</v>
+        <v>0.450645</v>
       </c>
       <c r="I13">
-        <v>0.2934556207752901</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J13">
-        <v>0.2934556207752901</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.75493680071728</v>
+        <v>5.817747499999999</v>
       </c>
       <c r="N13">
-        <v>5.75493680071728</v>
+        <v>11.635495</v>
       </c>
       <c r="O13">
-        <v>0.2849580936306999</v>
+        <v>0.2830416721298156</v>
       </c>
       <c r="P13">
-        <v>0.2849580936306999</v>
+        <v>0.2379046479070015</v>
       </c>
       <c r="Q13">
-        <v>17.70572592756111</v>
+        <v>0.8739129407124998</v>
       </c>
       <c r="R13">
-        <v>17.70572592756111</v>
+        <v>5.243477644274999</v>
       </c>
       <c r="S13">
-        <v>0.08362255426134027</v>
+        <v>0.003680401984538307</v>
       </c>
       <c r="T13">
-        <v>0.08362255426134027</v>
+        <v>0.003943257543774892</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.92401449597554</v>
+        <v>0.2266603333333333</v>
       </c>
       <c r="H14">
-        <v>1.92401449597554</v>
+        <v>0.6799809999999999</v>
       </c>
       <c r="I14">
-        <v>0.1835175460873881</v>
+        <v>0.01962036561408879</v>
       </c>
       <c r="J14">
-        <v>0.1835175460873881</v>
+        <v>0.025010042916226</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.88736189372331</v>
+        <v>6.9371785</v>
       </c>
       <c r="N14">
-        <v>6.88736189372331</v>
+        <v>13.874357</v>
       </c>
       <c r="O14">
-        <v>0.3410305939650818</v>
+        <v>0.3375035789200212</v>
       </c>
       <c r="P14">
-        <v>0.3410305939650818</v>
+        <v>0.2836814434642481</v>
       </c>
       <c r="Q14">
-        <v>13.2513841225532</v>
+        <v>1.572383191202833</v>
       </c>
       <c r="R14">
-        <v>13.2513841225532</v>
+        <v>9.434299147216999</v>
       </c>
       <c r="S14">
-        <v>0.06258509774519623</v>
+        <v>0.006621943614474287</v>
       </c>
       <c r="T14">
-        <v>0.06258509774519623</v>
+        <v>0.007094885075577787</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.92401449597554</v>
+        <v>0.2266603333333333</v>
       </c>
       <c r="H15">
-        <v>1.92401449597554</v>
+        <v>0.6799809999999999</v>
       </c>
       <c r="I15">
-        <v>0.1835175460873881</v>
+        <v>0.01962036561408879</v>
       </c>
       <c r="J15">
-        <v>0.1835175460873881</v>
+        <v>0.025010042916226</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.15231783898265</v>
+        <v>1.191958</v>
       </c>
       <c r="N15">
-        <v>1.15231783898265</v>
+        <v>3.575874</v>
       </c>
       <c r="O15">
-        <v>0.05705749794024108</v>
+        <v>0.05799044826687832</v>
       </c>
       <c r="P15">
-        <v>0.05705749794024108</v>
+        <v>0.0731139538910722</v>
       </c>
       <c r="Q15">
-        <v>2.217076226173827</v>
+        <v>0.2701695975993333</v>
       </c>
       <c r="R15">
-        <v>2.217076226173827</v>
+        <v>2.431526378394</v>
       </c>
       <c r="S15">
-        <v>0.01047105200787924</v>
+        <v>0.001137793797121055</v>
       </c>
       <c r="T15">
-        <v>0.01047105200787924</v>
+        <v>0.001828583124590685</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.92401449597554</v>
+        <v>0.2266603333333333</v>
       </c>
       <c r="H16">
-        <v>1.92401449597554</v>
+        <v>0.6799809999999999</v>
       </c>
       <c r="I16">
-        <v>0.1835175460873881</v>
+        <v>0.01962036561408879</v>
       </c>
       <c r="J16">
-        <v>0.1835175460873881</v>
+        <v>0.025010042916226</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5145994719149219</v>
+        <v>0.52236</v>
       </c>
       <c r="N16">
-        <v>0.5145994719149219</v>
+        <v>1.56708</v>
       </c>
       <c r="O16">
-        <v>0.02548060727303979</v>
+        <v>0.02541355530705492</v>
       </c>
       <c r="P16">
-        <v>0.02548060727303979</v>
+        <v>0.03204123379728185</v>
       </c>
       <c r="Q16">
-        <v>0.9900968435856676</v>
+        <v>0.11839829172</v>
       </c>
       <c r="R16">
-        <v>0.9900968435856676</v>
+        <v>1.06558462548</v>
       </c>
       <c r="S16">
-        <v>0.004676138519564716</v>
+        <v>0.0004986232466782841</v>
       </c>
       <c r="T16">
-        <v>0.004676138519564716</v>
+        <v>0.0008013526323588501</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.92401449597554</v>
+        <v>0.2266603333333333</v>
       </c>
       <c r="H17">
-        <v>1.92401449597554</v>
+        <v>0.6799809999999999</v>
       </c>
       <c r="I17">
-        <v>0.1835175460873881</v>
+        <v>0.01962036561408879</v>
       </c>
       <c r="J17">
-        <v>0.1835175460873881</v>
+        <v>0.025010042916226</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.807719035991041</v>
+        <v>0.8235506666666668</v>
       </c>
       <c r="N17">
-        <v>0.807719035991041</v>
+        <v>2.470652</v>
       </c>
       <c r="O17">
-        <v>0.03999454462411237</v>
+        <v>0.04006690867504266</v>
       </c>
       <c r="P17">
-        <v>0.03999454462411237</v>
+        <v>0.05051607981961482</v>
       </c>
       <c r="Q17">
-        <v>1.554063133922152</v>
+        <v>0.1866662686235556</v>
       </c>
       <c r="R17">
-        <v>1.554063133922152</v>
+        <v>1.679996417612</v>
       </c>
       <c r="S17">
-        <v>0.007339700686299641</v>
+        <v>0.000786127397230643</v>
       </c>
       <c r="T17">
-        <v>0.007339700686299641</v>
+        <v>0.001263409324248065</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.92401449597554</v>
+        <v>0.2266603333333333</v>
       </c>
       <c r="H18">
-        <v>1.92401449597554</v>
+        <v>0.6799809999999999</v>
       </c>
       <c r="I18">
-        <v>0.1835175460873881</v>
+        <v>0.01962036561408879</v>
       </c>
       <c r="J18">
-        <v>0.1835175460873881</v>
+        <v>0.025010042916226</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.0787952409472</v>
+        <v>5.261590333333333</v>
       </c>
       <c r="N18">
-        <v>5.0787952409472</v>
+        <v>15.784771</v>
       </c>
       <c r="O18">
-        <v>0.2514786625668252</v>
+        <v>0.2559838367011873</v>
       </c>
       <c r="P18">
-        <v>0.2514786625668252</v>
+        <v>0.3227426411207815</v>
       </c>
       <c r="Q18">
-        <v>9.771675665674</v>
+        <v>1.192593818816778</v>
       </c>
       <c r="R18">
-        <v>9.771675665674</v>
+        <v>10.733344369351</v>
       </c>
       <c r="S18">
-        <v>0.04615074704760207</v>
+        <v>0.005022496467374496</v>
       </c>
       <c r="T18">
-        <v>0.04615074704760207</v>
+        <v>0.008071807305326873</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.2266603333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.6799809999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.01962036561408879</v>
+      </c>
+      <c r="J19">
+        <v>0.025010042916226</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.817747499999999</v>
+      </c>
+      <c r="N19">
+        <v>11.635495</v>
+      </c>
+      <c r="O19">
+        <v>0.2830416721298156</v>
+      </c>
+      <c r="P19">
+        <v>0.2379046479070015</v>
+      </c>
+      <c r="Q19">
+        <v>1.318652587599167</v>
+      </c>
+      <c r="R19">
+        <v>7.911915525594998</v>
+      </c>
+      <c r="S19">
+        <v>0.005553381091210028</v>
+      </c>
+      <c r="T19">
+        <v>0.005950005454123744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.450882</v>
+      </c>
+      <c r="I20">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J20">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.9371785</v>
+      </c>
+      <c r="N20">
+        <v>13.874357</v>
+      </c>
+      <c r="O20">
+        <v>0.3375035789200212</v>
+      </c>
+      <c r="P20">
+        <v>0.2836814434642481</v>
+      </c>
+      <c r="Q20">
+        <v>3.355009138812334</v>
+      </c>
+      <c r="R20">
+        <v>20.130054832874</v>
+      </c>
+      <c r="S20">
+        <v>0.0141293047824214</v>
+      </c>
+      <c r="T20">
+        <v>0.01513842452689774</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.450882</v>
+      </c>
+      <c r="I21">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J21">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.191958</v>
+      </c>
+      <c r="N21">
+        <v>3.575874</v>
+      </c>
+      <c r="O21">
+        <v>0.05799044826687832</v>
+      </c>
+      <c r="P21">
+        <v>0.0731139538910722</v>
+      </c>
+      <c r="Q21">
+        <v>0.5764634689853333</v>
+      </c>
+      <c r="R21">
+        <v>5.188171220868</v>
+      </c>
+      <c r="S21">
+        <v>0.002427721568624109</v>
+      </c>
+      <c r="T21">
+        <v>0.003901665400904411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H22">
+        <v>1.450882</v>
+      </c>
+      <c r="I22">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J22">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.52236</v>
+      </c>
+      <c r="N22">
+        <v>1.56708</v>
+      </c>
+      <c r="O22">
+        <v>0.02541355530705492</v>
+      </c>
+      <c r="P22">
+        <v>0.03204123379728185</v>
+      </c>
+      <c r="Q22">
+        <v>0.25262757384</v>
+      </c>
+      <c r="R22">
+        <v>2.27364816456</v>
+      </c>
+      <c r="S22">
+        <v>0.001063917217373842</v>
+      </c>
+      <c r="T22">
+        <v>0.001709853819359766</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H23">
+        <v>1.450882</v>
+      </c>
+      <c r="I23">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J23">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.8235506666666668</v>
+      </c>
+      <c r="N23">
+        <v>2.470652</v>
+      </c>
+      <c r="O23">
+        <v>0.04006690867504266</v>
+      </c>
+      <c r="P23">
+        <v>0.05051607981961482</v>
+      </c>
+      <c r="Q23">
+        <v>0.3982916127848889</v>
+      </c>
+      <c r="R23">
+        <v>3.584624515064001</v>
+      </c>
+      <c r="S23">
+        <v>0.001677367588724964</v>
+      </c>
+      <c r="T23">
+        <v>0.002695748627069994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H24">
+        <v>1.450882</v>
+      </c>
+      <c r="I24">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J24">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.261590333333333</v>
+      </c>
+      <c r="N24">
+        <v>15.784771</v>
+      </c>
+      <c r="O24">
+        <v>0.2559838367011873</v>
+      </c>
+      <c r="P24">
+        <v>0.3227426411207815</v>
+      </c>
+      <c r="Q24">
+        <v>2.544648902002445</v>
+      </c>
+      <c r="R24">
+        <v>22.901840118022</v>
+      </c>
+      <c r="S24">
+        <v>0.01071654902060094</v>
+      </c>
+      <c r="T24">
+        <v>0.01722289288490012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H25">
+        <v>1.450882</v>
+      </c>
+      <c r="I25">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J25">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.817747499999999</v>
+      </c>
+      <c r="N25">
+        <v>11.635495</v>
+      </c>
+      <c r="O25">
+        <v>0.2830416721298156</v>
+      </c>
+      <c r="P25">
+        <v>0.2379046479070015</v>
+      </c>
+      <c r="Q25">
+        <v>2.813621709431667</v>
+      </c>
+      <c r="R25">
+        <v>16.88173025659</v>
+      </c>
+      <c r="S25">
+        <v>0.01184930264871664</v>
+      </c>
+      <c r="T25">
+        <v>0.01269558386674034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.223217</v>
+      </c>
+      <c r="H26">
+        <v>9.669651</v>
+      </c>
+      <c r="I26">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J26">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.9371785</v>
+      </c>
+      <c r="N26">
+        <v>13.874357</v>
+      </c>
+      <c r="O26">
+        <v>0.3375035789200212</v>
+      </c>
+      <c r="P26">
+        <v>0.2836814434642481</v>
+      </c>
+      <c r="Q26">
+        <v>22.3600316732345</v>
+      </c>
+      <c r="R26">
+        <v>134.160190039407</v>
+      </c>
+      <c r="S26">
+        <v>0.09416716598499798</v>
+      </c>
+      <c r="T26">
+        <v>0.1008926169495116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.223217</v>
+      </c>
+      <c r="H27">
+        <v>9.669651</v>
+      </c>
+      <c r="I27">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J27">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.191958</v>
+      </c>
+      <c r="N27">
+        <v>3.575874</v>
+      </c>
+      <c r="O27">
+        <v>0.05799044826687832</v>
+      </c>
+      <c r="P27">
+        <v>0.0731139538910722</v>
+      </c>
+      <c r="Q27">
+        <v>3.841939288886</v>
+      </c>
+      <c r="R27">
+        <v>34.577453599974</v>
+      </c>
+      <c r="S27">
+        <v>0.01617996521685959</v>
+      </c>
+      <c r="T27">
+        <v>0.02600331573864776</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.92401449597554</v>
-      </c>
-      <c r="H19">
-        <v>1.92401449597554</v>
-      </c>
-      <c r="I19">
-        <v>0.1835175460873881</v>
-      </c>
-      <c r="J19">
-        <v>0.1835175460873881</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>5.75493680071728</v>
-      </c>
-      <c r="N19">
-        <v>5.75493680071728</v>
-      </c>
-      <c r="O19">
-        <v>0.2849580936306999</v>
-      </c>
-      <c r="P19">
-        <v>0.2849580936306999</v>
-      </c>
-      <c r="Q19">
-        <v>11.07258182800314</v>
-      </c>
-      <c r="R19">
-        <v>11.07258182800314</v>
-      </c>
-      <c r="S19">
-        <v>0.05229481008084622</v>
-      </c>
-      <c r="T19">
-        <v>0.05229481008084622</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.223217</v>
+      </c>
+      <c r="H28">
+        <v>9.669651</v>
+      </c>
+      <c r="I28">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J28">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.52236</v>
+      </c>
+      <c r="N28">
+        <v>1.56708</v>
+      </c>
+      <c r="O28">
+        <v>0.02541355530705492</v>
+      </c>
+      <c r="P28">
+        <v>0.03204123379728185</v>
+      </c>
+      <c r="Q28">
+        <v>1.68367963212</v>
+      </c>
+      <c r="R28">
+        <v>15.15311668908</v>
+      </c>
+      <c r="S28">
+        <v>0.007090658085837571</v>
+      </c>
+      <c r="T28">
+        <v>0.01139561294042244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.223217</v>
+      </c>
+      <c r="H29">
+        <v>9.669651</v>
+      </c>
+      <c r="I29">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J29">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.8235506666666668</v>
+      </c>
+      <c r="N29">
+        <v>2.470652</v>
+      </c>
+      <c r="O29">
+        <v>0.04006690867504266</v>
+      </c>
+      <c r="P29">
+        <v>0.05051607981961482</v>
+      </c>
+      <c r="Q29">
+        <v>2.654482509161334</v>
+      </c>
+      <c r="R29">
+        <v>23.890342582452</v>
+      </c>
+      <c r="S29">
+        <v>0.0111791029054616</v>
+      </c>
+      <c r="T29">
+        <v>0.01796627734543263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.223217</v>
+      </c>
+      <c r="H30">
+        <v>9.669651</v>
+      </c>
+      <c r="I30">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J30">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>5.261590333333333</v>
+      </c>
+      <c r="N30">
+        <v>15.784771</v>
+      </c>
+      <c r="O30">
+        <v>0.2559838367011873</v>
+      </c>
+      <c r="P30">
+        <v>0.3227426411207815</v>
+      </c>
+      <c r="Q30">
+        <v>16.95924740943567</v>
+      </c>
+      <c r="R30">
+        <v>152.633226684921</v>
+      </c>
+      <c r="S30">
+        <v>0.07142227207560839</v>
+      </c>
+      <c r="T30">
+        <v>0.1147849124927922</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.223217</v>
+      </c>
+      <c r="H31">
+        <v>9.669651</v>
+      </c>
+      <c r="I31">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J31">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.817747499999999</v>
+      </c>
+      <c r="N31">
+        <v>11.635495</v>
+      </c>
+      <c r="O31">
+        <v>0.2830416721298156</v>
+      </c>
+      <c r="P31">
+        <v>0.2379046479070015</v>
+      </c>
+      <c r="Q31">
+        <v>18.7518626437075</v>
+      </c>
+      <c r="R31">
+        <v>112.511175862245</v>
+      </c>
+      <c r="S31">
+        <v>0.07897170218285532</v>
+      </c>
+      <c r="T31">
+        <v>0.08461188796374181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.92403</v>
+      </c>
+      <c r="H32">
+        <v>3.84806</v>
+      </c>
+      <c r="I32">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J32">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>6.9371785</v>
+      </c>
+      <c r="N32">
+        <v>13.874357</v>
+      </c>
+      <c r="O32">
+        <v>0.3375035789200212</v>
+      </c>
+      <c r="P32">
+        <v>0.2836814434642481</v>
+      </c>
+      <c r="Q32">
+        <v>13.347339549355</v>
+      </c>
+      <c r="R32">
+        <v>53.38935819742</v>
+      </c>
+      <c r="S32">
+        <v>0.05621106254096937</v>
+      </c>
+      <c r="T32">
+        <v>0.0401504504742454</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.92403</v>
+      </c>
+      <c r="H33">
+        <v>3.84806</v>
+      </c>
+      <c r="I33">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J33">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.191958</v>
+      </c>
+      <c r="N33">
+        <v>3.575874</v>
+      </c>
+      <c r="O33">
+        <v>0.05799044826687832</v>
+      </c>
+      <c r="P33">
+        <v>0.0731139538910722</v>
+      </c>
+      <c r="Q33">
+        <v>2.29336295074</v>
+      </c>
+      <c r="R33">
+        <v>13.76017770444</v>
+      </c>
+      <c r="S33">
+        <v>0.009658281920266109</v>
+      </c>
+      <c r="T33">
+        <v>0.01034807969400973</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.92403</v>
+      </c>
+      <c r="H34">
+        <v>3.84806</v>
+      </c>
+      <c r="I34">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J34">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.52236</v>
+      </c>
+      <c r="N34">
+        <v>1.56708</v>
+      </c>
+      <c r="O34">
+        <v>0.02541355530705492</v>
+      </c>
+      <c r="P34">
+        <v>0.03204123379728185</v>
+      </c>
+      <c r="Q34">
+        <v>1.0050363108</v>
+      </c>
+      <c r="R34">
+        <v>6.030217864800001</v>
+      </c>
+      <c r="S34">
+        <v>0.004232615699437569</v>
+      </c>
+      <c r="T34">
+        <v>0.004534910549669472</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.92403</v>
+      </c>
+      <c r="H35">
+        <v>3.84806</v>
+      </c>
+      <c r="I35">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J35">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.8235506666666668</v>
+      </c>
+      <c r="N35">
+        <v>2.470652</v>
+      </c>
+      <c r="O35">
+        <v>0.04006690867504266</v>
+      </c>
+      <c r="P35">
+        <v>0.05051607981961482</v>
+      </c>
+      <c r="Q35">
+        <v>1.584536189186667</v>
+      </c>
+      <c r="R35">
+        <v>9.507217135120001</v>
+      </c>
+      <c r="S35">
+        <v>0.006673124820077359</v>
+      </c>
+      <c r="T35">
+        <v>0.00714972166026111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.92403</v>
+      </c>
+      <c r="H36">
+        <v>3.84806</v>
+      </c>
+      <c r="I36">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J36">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>5.261590333333333</v>
+      </c>
+      <c r="N36">
+        <v>15.784771</v>
+      </c>
+      <c r="O36">
+        <v>0.2559838367011873</v>
+      </c>
+      <c r="P36">
+        <v>0.3227426411207815</v>
+      </c>
+      <c r="Q36">
+        <v>10.12345764904333</v>
+      </c>
+      <c r="R36">
+        <v>60.74074589426</v>
+      </c>
+      <c r="S36">
+        <v>0.04263398776490469</v>
+      </c>
+      <c r="T36">
+        <v>0.04567892164536382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.92403</v>
+      </c>
+      <c r="H37">
+        <v>3.84806</v>
+      </c>
+      <c r="I37">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J37">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>5.817747499999999</v>
+      </c>
+      <c r="N37">
+        <v>11.635495</v>
+      </c>
+      <c r="O37">
+        <v>0.2830416721298156</v>
+      </c>
+      <c r="P37">
+        <v>0.2379046479070015</v>
+      </c>
+      <c r="Q37">
+        <v>11.193520722425</v>
+      </c>
+      <c r="R37">
+        <v>44.7740828897</v>
+      </c>
+      <c r="S37">
+        <v>0.04714045754625864</v>
+      </c>
+      <c r="T37">
+        <v>0.03367149668563595</v>
       </c>
     </row>
   </sheetData>
